--- a/xtt_demo/ZXXT_DEMO_130_A_R.XLSX
+++ b/xtt_demo/ZXXT_DEMO_130_A_R.XLSX
@@ -168,6 +168,9 @@
 Covert result to double</t>
   </si>
   <si>
+    <t>Pos.</t>
+  </si>
+  <si>
     <t>R;cond=|First caption in group 'A' { value-t[ group = 'GRP A' ]-caption }|</t>
   </si>
   <si>
@@ -197,9 +200,6 @@
   </si>
   <si>
     <t>post meridiem</t>
-  </si>
-  <si>
-    <t>№</t>
   </si>
 </sst>
 </file>
@@ -625,10 +625,10 @@
     </row>
     <row r="2">
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
@@ -636,18 +636,18 @@
         <v>22</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
@@ -660,7 +660,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>16</v>
@@ -669,13 +669,13 @@
         <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>24</v>
@@ -698,7 +698,7 @@
         <v>5021.46</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H7" s="10">
         <v>10992.90000</v>
@@ -721,7 +721,7 @@
         <v>7717.20</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8" s="10">
         <v>-5440.45000</v>
@@ -744,7 +744,7 @@
         <v>445.22</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H9" s="10">
         <v>2586.16000</v>
@@ -767,7 +767,7 @@
         <v>3683.27</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H10" s="10">
         <v>13160.06000</v>
@@ -790,7 +790,7 @@
         <v>5525.85</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H11" s="10">
         <v>10129.85000</v>
@@ -813,7 +813,7 @@
         <v>2260.94</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H12" s="10">
         <v>-101.23000</v>
@@ -836,7 +836,7 @@
         <v>6388.81</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H13" s="10">
         <v>-3898.51000</v>
@@ -859,7 +859,7 @@
         <v>406.18</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H14" s="10">
         <v>5882.99000</v>
@@ -882,7 +882,7 @@
         <v>518.60</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H15" s="10">
         <v>171.06000</v>
@@ -905,7 +905,7 @@
         <v>4061.85</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H16" s="10">
         <v>1390.02000</v>
@@ -928,7 +928,7 @@
         <v>5436.00</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H17" s="10">
         <v>-862.45000</v>
@@ -951,7 +951,7 @@
         <v>522.46</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H18" s="10">
         <v>673.89000</v>
@@ -974,7 +974,7 @@
         <v>2727.98</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H19" s="10">
         <v>4958.97000</v>
@@ -997,7 +997,7 @@
         <v>295.55</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H20" s="10">
         <v>682.63000</v>
@@ -1020,7 +1020,7 @@
         <v>8878.56</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H21" s="10">
         <v>-8807.44000</v>
